--- a/DOC/Temporizador_V7_SMD.xlsx
+++ b/DOC/Temporizador_V7_SMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Desktop\GitHub Repos\TemporizadorAC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2C32F4-EE51-4995-AF31-3D8B7F0C6CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B214506-90FA-4E56-BE4C-3B2928DCD9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6777420-B2DF-4115-B9E1-14C4A8726715}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t>Comment</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>C178628</t>
+  </si>
+  <si>
+    <t>C1779</t>
+  </si>
+  <si>
+    <t>4.7uF/25V</t>
   </si>
 </sst>
 </file>
@@ -737,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3512E9-E09F-46DD-8BB7-07869849B5BE}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,6 +1277,24 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/DOC/Temporizador_V7_SMD.xlsx
+++ b/DOC/Temporizador_V7_SMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Desktop\GitHub Repos\TemporizadorAC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B214506-90FA-4E56-BE4C-3B2928DCD9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9548320F-8F5C-40CA-9032-7B22EF62DA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6777420-B2DF-4115-B9E1-14C4A8726715}"/>
   </bookViews>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3512E9-E09F-46DD-8BB7-07869849B5BE}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DOC/Temporizador_V7_SMD.xlsx
+++ b/DOC/Temporizador_V7_SMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Desktop\GitHub Repos\TemporizadorAC\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9548320F-8F5C-40CA-9032-7B22EF62DA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A5EF6A-B630-4F10-8E68-3B921DAAA4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6777420-B2DF-4115-B9E1-14C4A8726715}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>Comment</t>
   </si>
@@ -357,6 +357,36 @@
   </si>
   <si>
     <t>4.7uF/25V</t>
+  </si>
+  <si>
+    <t>47K/1%</t>
+  </si>
+  <si>
+    <t>C17713</t>
+  </si>
+  <si>
+    <t>SI2301CDS-T1-GE3</t>
+  </si>
+  <si>
+    <t>MMBT3904</t>
+  </si>
+  <si>
+    <t>C10487</t>
+  </si>
+  <si>
+    <t>C20526</t>
+  </si>
+  <si>
+    <t>10K/1%</t>
+  </si>
+  <si>
+    <t>C17414</t>
+  </si>
+  <si>
+    <t>1K/1%</t>
+  </si>
+  <si>
+    <t>C17513</t>
   </si>
 </sst>
 </file>
@@ -743,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3512E9-E09F-46DD-8BB7-07869849B5BE}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1291,9 +1321,71 @@
       <c r="E28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
